--- a/clubes.xlsx
+++ b/clubes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\degef.antunes\Desktop\JoséAmérico\Python_Projects\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24C505B3-3C4B-421F-AE1B-E539E1FF436D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4811A415-736E-4642-8ED0-F2F3824BF178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6B3553A-90E5-4DE1-AEA6-3FE40CBF4180}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Atlético</t>
   </si>
   <si>
-    <t>Athlético</t>
-  </si>
-  <si>
     <t>Bahia</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>Vasco</t>
+  </si>
+  <si>
+    <t>Athletico</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A20"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,87 +475,87 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
